--- a/data/trans_dic/P25A$otro-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25A$otro-Estudios-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.009514482078428692</v>
+        <v>0.01054032570664286</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.007694167058912614</v>
+        <v>0.007893646509852463</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06262538709920677</v>
+        <v>0.06626092906782846</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01424532796555667</v>
+        <v>0.01437275728712446</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05411586124677249</v>
+        <v>0.04567643688411779</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01119695044431189</v>
+        <v>0.0107061123890168</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01186629677806933</v>
+        <v>0.01166589639013888</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06808468428013656</v>
+        <v>0.07053847110374095</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05047555328603016</v>
+        <v>0.05583032557211001</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04418340277291895</v>
+        <v>0.04522379505041696</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1481282199289081</v>
+        <v>0.1480020221289153</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1123408784943216</v>
+        <v>0.06983907768850631</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1223707381579619</v>
+        <v>0.1086015173826297</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2839650670962684</v>
+        <v>0.2904618391676723</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04479775456914991</v>
+        <v>0.04516852644140932</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04721271770433991</v>
+        <v>0.04767506682648701</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1460325419198774</v>
+        <v>0.1507025797976828</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004364341589929597</v>
+        <v>0.004348526578214069</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.009007294711356164</v>
+        <v>0.01137315374550535</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05861522985577351</v>
+        <v>0.06110854182143337</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1003443209300863</v>
+        <v>0.09889215528048086</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03178044953678846</v>
+        <v>0.0283849301868877</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08872201702496131</v>
+        <v>0.07900393870832972</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04914758558278303</v>
+        <v>0.04826754375933146</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02413921252667436</v>
+        <v>0.02446871645592853</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07886799081459427</v>
+        <v>0.07706649856942681</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0396561296703059</v>
+        <v>0.03916665902511191</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04346476225155757</v>
+        <v>0.04412196673303258</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1285424809748801</v>
+        <v>0.1263640196912137</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2160808867480718</v>
+        <v>0.225181982785051</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09553075634293487</v>
+        <v>0.09215866881539075</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.181412818652233</v>
+        <v>0.1820345777727778</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1024129540096926</v>
+        <v>0.09824377210034499</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05606494367718085</v>
+        <v>0.05720279979151929</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1359694545931006</v>
+        <v>0.1321485368991593</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.009711734367353711</v>
+        <v>0.009578459973357491</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04901680771467438</v>
+        <v>0.05632650891618274</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01905014937017077</v>
+        <v>0.01905937486908708</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07842186814583012</v>
+        <v>0.07133811211649568</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01751194926177983</v>
+        <v>0.01995792446850425</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.005598750116026533</v>
+        <v>0.005707401890888319</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.08163077971927506</v>
+        <v>0.07603399396570797</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08955563160447891</v>
+        <v>0.09045632518144209</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06038214068397683</v>
+        <v>0.0605308238933196</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1890009758753805</v>
+        <v>0.1935404801249935</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1627104768645606</v>
+        <v>0.1754301941568731</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08703703012144628</v>
+        <v>0.08526988634291426</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2396114460425763</v>
+        <v>0.2226892086698124</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08877648342359835</v>
+        <v>0.09376872802438507</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05252768864112207</v>
+        <v>0.05256484945325947</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1856431861876815</v>
+        <v>0.1775525342462881</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01227294191809591</v>
+        <v>0.01383412156540324</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01212304406111608</v>
+        <v>0.01241489368249413</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07330085697129381</v>
+        <v>0.0731870925474261</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07402885006230274</v>
+        <v>0.07261871591919442</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02971085658554116</v>
+        <v>0.02941456597556651</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09445992811429403</v>
+        <v>0.0972278675146156</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03493428982251258</v>
+        <v>0.03515896717528328</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02077588089349098</v>
+        <v>0.02133134986575567</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0878087940185063</v>
+        <v>0.0869933056348688</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0366819330260969</v>
+        <v>0.03824169442862028</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03415557892261419</v>
+        <v>0.03448261401592706</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1215774409972473</v>
+        <v>0.1225236753701697</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1539691763885337</v>
+        <v>0.1538926322410524</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07575033240690114</v>
+        <v>0.07503793283111447</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1700536189138698</v>
+        <v>0.1704849633311114</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06526313921903636</v>
+        <v>0.06344152492237816</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04091321152265709</v>
+        <v>0.04236494353213351</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1299921858419699</v>
+        <v>0.1296336503985104</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2884</v>
+        <v>3194</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2863</v>
+        <v>2937</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>13140</v>
+        <v>13903</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>984</v>
+        <v>993</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2036</v>
+        <v>1719</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3933</v>
+        <v>3760</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5235</v>
+        <v>5146</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>16847</v>
+        <v>17455</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>15298</v>
+        <v>16920</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>16439</v>
+        <v>16826</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>31080</v>
+        <v>31053</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>5410</v>
+        <v>3363</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>8452</v>
+        <v>7501</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>10686</v>
+        <v>10930</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>15734</v>
+        <v>15864</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>20828</v>
+        <v>21031</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>36135</v>
+        <v>37291</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3132</v>
+        <v>3955</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>17704</v>
+        <v>18457</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>15174</v>
+        <v>14954</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>7630</v>
+        <v>6815</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>17839</v>
+        <v>15885</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>19083</v>
+        <v>18741</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>14190</v>
+        <v>14383</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>39680</v>
+        <v>38773</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9401</v>
+        <v>9285</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>15114</v>
+        <v>15343</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>38825</v>
+        <v>38167</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>32675</v>
+        <v>34051</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>22936</v>
+        <v>22126</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>36477</v>
+        <v>36602</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>39765</v>
+        <v>38146</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>32957</v>
+        <v>33625</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>68408</v>
+        <v>66486</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4392</v>
+        <v>5048</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7455</v>
+        <v>6782</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2378</v>
+        <v>2710</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>972</v>
+        <v>991</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>15076</v>
+        <v>14042</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7562</v>
+        <v>7638</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5813</v>
+        <v>5827</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>16937</v>
+        <v>17344</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>8357</v>
+        <v>9010</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6737</v>
+        <v>6600</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>22780</v>
+        <v>21171</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>12055</v>
+        <v>12733</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>9122</v>
+        <v>9129</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>34285</v>
+        <v>32791</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7665</v>
+        <v>8640</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9893</v>
+        <v>10131</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>44088</v>
+        <v>44020</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>18562</v>
+        <v>18208</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>11485</v>
+        <v>11371</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>31528</v>
+        <v>32452</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>30578</v>
+        <v>30775</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>24986</v>
+        <v>25654</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>82122</v>
+        <v>81360</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>22910</v>
+        <v>23885</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>27873</v>
+        <v>28140</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>73125</v>
+        <v>73694</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>38605</v>
+        <v>38586</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>29282</v>
+        <v>29007</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>56759</v>
+        <v>56903</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>57125</v>
+        <v>55531</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>49204</v>
+        <v>50950</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>121574</v>
+        <v>121239</v>
       </c>
     </row>
     <row r="20">
